--- a/migforecasting/cities19-21/d14.xlsx
+++ b/migforecasting/cities19-21/d14.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities19-21\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21030" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="109">
   <si>
     <t>НАСЕЛЕНИЕ</t>
   </si>
@@ -55,9 +60,6 @@
     <t>всего, тыс.</t>
   </si>
   <si>
-    <t>Численность лиц, размещенных в коллективных средствах  размещения, человек</t>
-  </si>
-  <si>
     <t>в том числе:</t>
   </si>
   <si>
@@ -65,9 +67,6 @@
   </si>
   <si>
     <t>иностранных граждан</t>
-  </si>
-  <si>
-    <t>в том числе за счет:</t>
   </si>
   <si>
     <t>федерального бюджета</t>
@@ -155,20 +154,11 @@
     <t>Число умерших на 1 000 человек населения</t>
   </si>
   <si>
-    <t>Естественный прирост, убыль (-) на 1 000 человек населения</t>
-  </si>
-  <si>
-    <t>Численность незанятых граждан, состоящих на учете  в органах службы занятости населения в целях поиска  подходящей работы (на конец года), человек</t>
-  </si>
-  <si>
     <t>ОСНОВНЫЕ ФОНДЫ</t>
   </si>
   <si>
-    <t>Число предприятий и организаций (на конец года; по данным государственной регистрации)</t>
-  </si>
-  <si>
-    <r>
-      <t>Численность населения</t>
+    <r>
+      <t>Среднегодовая численность работников организаций</t>
     </r>
     <r>
       <rPr>
@@ -179,7 +169,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>2)</t>
     </r>
     <r>
       <rPr>
@@ -189,59 +179,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>(оценка на конец года), тыс. человек</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Среднегодовая численность работников организаций</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
       <t>,  тыс. человек</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Среднемесячная номинальная начисленная заработная  плата работников организаций</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, руб.</t>
     </r>
   </si>
   <si>
@@ -265,12 +203,6 @@
     <t>Инвестиции в основной капитал (в фактически  действовавших ценах), млн руб.</t>
   </si>
   <si>
-    <t>газовых сетей, км</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дошкольных образовательных организаций, мест </t>
-  </si>
-  <si>
     <t>больничных организаций, коек</t>
   </si>
   <si>
@@ -291,15 +223,6 @@
     </r>
   </si>
   <si>
-    <t>Оборот розничной торговли (в фактически действовавших ценах), млн руб.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оборот общественного питания (в фактически  действовавших ценах), млн руб. </t>
-  </si>
-  <si>
-    <t>Индекс физического объема оборота общественного  питания, в процентах к предыдущему году</t>
-  </si>
-  <si>
     <r>
       <t>2)</t>
     </r>
@@ -325,60 +248,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">СОЦИАЛЬНО-ЭКОНОМИЧЕСКАЯ ХАРАКТЕРИСТИКА Г. СМОЛЕНСКА </t>
-  </si>
-  <si>
-    <t>Миграционный прирост, убыль (-) населения, человек</t>
-  </si>
-  <si>
-    <t>-2 552</t>
-  </si>
-  <si>
-    <t>-2 971</t>
-  </si>
-  <si>
-    <t>1 532</t>
-  </si>
-  <si>
-    <t>7 701</t>
-  </si>
-  <si>
-    <t>1 484</t>
-  </si>
-  <si>
-    <t>1 230</t>
-  </si>
-  <si>
-    <t>7 136</t>
-  </si>
-  <si>
-    <t>1 145</t>
-  </si>
-  <si>
-    <t>37 396</t>
-  </si>
-  <si>
-    <t>38 922</t>
-  </si>
-  <si>
-    <t>42 458</t>
-  </si>
-  <si>
-    <t>Средний размер назначенных пенсий, руб.</t>
-  </si>
-  <si>
-    <t>14 839</t>
-  </si>
-  <si>
-    <t>15 672</t>
-  </si>
-  <si>
-    <t>16 487</t>
-  </si>
-  <si>
-    <t>Численность пенсионеров, тыс. человек</t>
-  </si>
-  <si>
     <r>
       <t>Общая площадь жилых помещений, приходящаяся  в среднем на одного городского жителя (на конец года), м</t>
     </r>
@@ -396,197 +265,6 @@
   </si>
   <si>
     <t>Число мест в организациях, осуществляющих образовательную деятельность по образовательным программам дошкольного образования, присмотр и уход за детьми, тыс.</t>
-  </si>
-  <si>
-    <t>Численность воспитанников организаций, осуществляющих  образовательную деятельность по образовательным  программам дошкольного образования, присмотр и уход  за детьми, тыс. человек</t>
-  </si>
-  <si>
-    <t>3 243</t>
-  </si>
-  <si>
-    <t>3 212</t>
-  </si>
-  <si>
-    <t>3 199</t>
-  </si>
-  <si>
-    <t>4 575</t>
-  </si>
-  <si>
-    <t>4 373</t>
-  </si>
-  <si>
-    <t>4 287</t>
-  </si>
-  <si>
-    <t>148 421</t>
-  </si>
-  <si>
-    <t>87 751</t>
-  </si>
-  <si>
-    <t>131 652</t>
-  </si>
-  <si>
-    <t>139 295</t>
-  </si>
-  <si>
-    <t>84 249</t>
-  </si>
-  <si>
-    <t>123 646</t>
-  </si>
-  <si>
-    <t>9 126</t>
-  </si>
-  <si>
-    <t>3 502</t>
-  </si>
-  <si>
-    <t>8 006</t>
-  </si>
-  <si>
-    <t>10 229,9</t>
-  </si>
-  <si>
-    <t>13 689,5</t>
-  </si>
-  <si>
-    <t>11 615,9</t>
-  </si>
-  <si>
-    <t>Удельный вес инвестиций в основной капитал, финансируемых за счет бюджетных средств, в общем  объеме инвестиций, процентов</t>
-  </si>
-  <si>
-    <r>
-      <t>Наличие основных фондов организаций</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3); 4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (на конец года), млн руб.</t>
-    </r>
-  </si>
-  <si>
-    <t>172 060,1</t>
-  </si>
-  <si>
-    <t>185 958,6</t>
-  </si>
-  <si>
-    <t>199 069,3</t>
-  </si>
-  <si>
-    <r>
-      <t>Ввод в действие основных фондов</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, млн руб.</t>
-    </r>
-  </si>
-  <si>
-    <t>9 321,8</t>
-  </si>
-  <si>
-    <t>12 185,8</t>
-  </si>
-  <si>
-    <t>11 736,5</t>
-  </si>
-  <si>
-    <r>
-      <t>Степень износа основных фондов</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>5)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (на конец года),  процентов</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Удельный вес полностью изношенных основных фондов  в общем объеме основных фондов</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>5)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>, процентов</t>
-    </r>
-  </si>
-  <si>
-    <t>16 991</t>
-  </si>
-  <si>
-    <t>15 275</t>
-  </si>
-  <si>
-    <t>15 051</t>
   </si>
   <si>
     <r>
@@ -606,11 +284,32 @@
     </r>
   </si>
   <si>
-    <t>Объем отгруженных товаров собственного производства, выполненных работ и услуг собственными силами по видам экономической деятельности, млн руб.:</t>
-  </si>
-  <si>
-    <r>
-      <t>…</t>
+    <t xml:space="preserve">СОЦИАЛЬНО-ЭКОНОМИЧЕСКАЯ ХАРАКТЕРИСТИКА Г. ТАМБОВА </t>
+  </si>
+  <si>
+    <t>Численность населения (оценка на конец года), тыс. человек</t>
+  </si>
+  <si>
+    <t>Естественный прирост, убыль (-) на 1 000 человек  населения</t>
+  </si>
+  <si>
+    <t>Миграционный прирост населения, человек</t>
+  </si>
+  <si>
+    <t>1 775</t>
+  </si>
+  <si>
+    <t>Численность незанятых граждан, состоящих на учете в органах службы занятости населения в целях поиска  подходящей работы (на конец года), человек</t>
+  </si>
+  <si>
+    <t>2 230</t>
+  </si>
+  <si>
+    <t>2 123</t>
+  </si>
+  <si>
+    <r>
+      <t>Среднемесячная номинальная начисленная заработная  плата работников организаций</t>
     </r>
     <r>
       <rPr>
@@ -621,45 +320,25 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>6)</t>
-    </r>
-  </si>
-  <si>
-    <t>54 066,3</t>
-  </si>
-  <si>
-    <t>57 213,6</t>
-  </si>
-  <si>
-    <t>58 819,1</t>
-  </si>
-  <si>
-    <t>обеспечение электрической энергией, газом и паром; кондиционирование воздуха</t>
-  </si>
-  <si>
-    <t>15 305,7</t>
-  </si>
-  <si>
-    <t>15 151,0</t>
-  </si>
-  <si>
-    <t>16 967,7</t>
-  </si>
-  <si>
-    <t>водоснабжение; водоотведение, организация  сбора и утилизации отходов, деятельность  по ликвидации загрязнений</t>
-  </si>
-  <si>
-    <t>5 450,9</t>
-  </si>
-  <si>
-    <t>6 028,6</t>
-  </si>
-  <si>
-    <t>6 463,7</t>
-  </si>
-  <si>
-    <r>
-      <t>Объем работ, выполненных по виду экономической  деятельности «Строительство»</t>
+      <t xml:space="preserve"> 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> руб.</t>
+    </r>
+  </si>
+  <si>
+    <t>34 037,4</t>
+  </si>
+  <si>
+    <r>
+      <t>Средний размер назначенных пенсий</t>
     </r>
     <r>
       <rPr>
@@ -670,7 +349,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">2) </t>
+      <t>3)</t>
     </r>
     <r>
       <rPr>
@@ -680,21 +359,15 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>(в фактически  действовавших ценах), млн руб.</t>
-    </r>
-  </si>
-  <si>
-    <t>1 190,9</t>
-  </si>
-  <si>
-    <t>1 402,0</t>
-  </si>
-  <si>
-    <t>1 583,8</t>
-  </si>
-  <si>
-    <r>
-      <t>Ввод в действие жилых домов, тыс. м</t>
+      <t>, руб.</t>
+    </r>
+  </si>
+  <si>
+    <t>13 856,1</t>
+  </si>
+  <si>
+    <r>
+      <t>Численность пенсионеров</t>
     </r>
     <r>
       <rPr>
@@ -705,7 +378,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t>3)</t>
     </r>
     <r>
       <rPr>
@@ -715,42 +388,33 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>общей площади  жилых помещений</t>
-    </r>
-  </si>
-  <si>
-    <t>2 511</t>
-  </si>
-  <si>
-    <t>2 988</t>
-  </si>
-  <si>
-    <t>2 783</t>
-  </si>
-  <si>
-    <t>амбулаторно-поликлинических организаций,  посещений в смену</t>
-  </si>
-  <si>
-    <t>водопроводных сетей, км</t>
-  </si>
-  <si>
-    <t>канализационных сетей, км</t>
-  </si>
-  <si>
-    <t>тепловые сети, км</t>
-  </si>
-  <si>
-    <t>волоконно-оптических линий связи (передачи), км</t>
-  </si>
-  <si>
-    <t>радиовещательных станций, кВт</t>
-  </si>
-  <si>
-    <t>телевизионные станции мощностью 1 кВт и выше, шт</t>
-  </si>
-  <si>
-    <r>
-      <t>спортивных залов, м</t>
+      <t>, тыс. человек</t>
+    </r>
+  </si>
+  <si>
+    <t>Численность воспитанников организаций, осуществляющих  образовательную деятельность по образовательным программам дошкольного образования, присмотр и уход  за детьми, тыс. человек</t>
+  </si>
+  <si>
+    <t>2 192</t>
+  </si>
+  <si>
+    <t>2 319</t>
+  </si>
+  <si>
+    <t>2 416</t>
+  </si>
+  <si>
+    <t>4 687</t>
+  </si>
+  <si>
+    <t>4 679</t>
+  </si>
+  <si>
+    <t>4 770</t>
+  </si>
+  <si>
+    <r>
+      <t>Численность лиц, размещенных в коллективных средствах  размещения</t>
     </r>
     <r>
       <rPr>
@@ -761,15 +425,55 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>1 059,2</t>
-  </si>
-  <si>
-    <r>
-      <t>торгово-офисных центров, м</t>
+      <t>4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, человек</t>
+    </r>
+  </si>
+  <si>
+    <t>110 846</t>
+  </si>
+  <si>
+    <t>74 029</t>
+  </si>
+  <si>
+    <t>95 093</t>
+  </si>
+  <si>
+    <t>107 745</t>
+  </si>
+  <si>
+    <t>73 049</t>
+  </si>
+  <si>
+    <t>93 852</t>
+  </si>
+  <si>
+    <t>3 101</t>
+  </si>
+  <si>
+    <t>1 241</t>
+  </si>
+  <si>
+    <t>6 871,1</t>
+  </si>
+  <si>
+    <t>Удельный вес инвестиций в основной капитал,  финансируемых за счет бюджетных средств, в общем  объеме инвестиций, процентов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в том числе за счет: </t>
+  </si>
+  <si>
+    <r>
+      <t>Наличие основных фондов организаций</t>
     </r>
     <r>
       <rPr>
@@ -780,7 +484,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>2</t>
+      <t>5);6)</t>
     </r>
     <r>
       <rPr>
@@ -790,12 +494,15 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> общей площади</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>торговые предприятия торговая площадь, тыс. м</t>
+      <t xml:space="preserve"> (на конец года), млн руб.</t>
+    </r>
+  </si>
+  <si>
+    <t>316 612,0</t>
+  </si>
+  <si>
+    <r>
+      <t>Ввод в действие основных фондов</t>
     </r>
     <r>
       <rPr>
@@ -806,23 +513,195 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
+      <t>5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, млн руб.</t>
+    </r>
+  </si>
+  <si>
+    <t>16 622,1</t>
+  </si>
+  <si>
+    <r>
+      <t>Степень износа основных фондов</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">7) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(на конец года),  процентов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Удельный вес полностью изношенных основных фондов  в общем объеме основных фондов</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>7)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, процентов</t>
+    </r>
+  </si>
+  <si>
+    <t>Число предприятий и организаций (на конец года;  по данным государственной регистрации)</t>
+  </si>
+  <si>
+    <t>8 379</t>
+  </si>
+  <si>
+    <t>Объем отгруженных товаров собственного производства,  выполненных работ и услуг собственными силами по видам экономических деятельности, млн руб.:</t>
+  </si>
+  <si>
+    <t>52 941,4</t>
+  </si>
+  <si>
+    <t>обеспечение электрической энергией, газом и паром;  кондиционирование воздуха</t>
+  </si>
+  <si>
+    <t>12 015,1</t>
+  </si>
+  <si>
+    <t>водоснабжение; водоотведение, организация сбора  и утилизации отходов, деятельность по ликвидации  загрязнений</t>
+  </si>
+  <si>
+    <t>1 136,9</t>
+  </si>
+  <si>
+    <r>
+      <t>Объем работ, выполненных по виду экономической деятельности «Строительство»</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(в фактически действовавших ценах), млн руб.</t>
+    </r>
+  </si>
+  <si>
+    <t>3 812,8</t>
+  </si>
+  <si>
+    <r>
+      <t>Ввод в действие жилых домов, тыс. м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>общей площади жилых помещений</t>
+    </r>
+  </si>
+  <si>
+    <t>4 052</t>
+  </si>
+  <si>
+    <t>дошкольных образовательных организаций, мест</t>
+  </si>
+  <si>
+    <t>общеобразовательных организаций, ученических мест</t>
+  </si>
+  <si>
+    <r>
+      <t>торгово-развлекательных центров, м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
       <t>2</t>
     </r>
   </si>
   <si>
-    <t>общеобразовательных организаций,  ученических мест</t>
-  </si>
-  <si>
-    <t>физкультурно-оздоровительный комплекс, ед.</t>
-  </si>
-  <si>
-    <t>55 644,7</t>
-  </si>
-  <si>
-    <t>53 613,0</t>
-  </si>
-  <si>
-    <t>63 144,2</t>
+    <t>Оборот розничной торговли (в фактически действовавших  ценах), млн руб.</t>
+  </si>
+  <si>
+    <t>50 619,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оборот общественного питания (в фактически действовавших ценах), млн руб. </t>
+  </si>
+  <si>
+    <t>1 469,5</t>
+  </si>
+  <si>
+    <t>2 001,8</t>
+  </si>
+  <si>
+    <t>Индекс физического объема оборота общественного питания,  в процентах к предыдущему году</t>
   </si>
   <si>
     <r>
@@ -836,12 +715,42 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
+      <t> Включая Тамбовский район.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> По полному кругу хозяйствующих субъектов.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
       <t> По полной учетной стоимости; по коммерческим (без субъектов малого предпринимательства) и некоммерческим организациям.</t>
     </r>
   </si>
   <si>
     <r>
-      <t>4)</t>
+      <t>6)</t>
     </r>
     <r>
       <rPr>
@@ -886,7 +795,7 @@
   </si>
   <si>
     <r>
-      <t>5)</t>
+      <t>7)</t>
     </r>
     <r>
       <rPr>
@@ -900,36 +809,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> Данные не публикуются в целях обеспечения конфиденциальности первичных статис­тических данных, полученных от организаций, в соответствии с Федеральным законом от 29 ноября 2007 г. № 282-ФЗ "Об официальном статистическом учете и системе государственной статистики в Российской Федерации" (п.5 ст.4, ч.1 ст.9).</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>Тамбов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -1174,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1209,6 +1095,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -1221,6 +1131,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,24 +1145,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1260,6 +1155,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1308,7 +1206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1343,7 +1241,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1552,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,15 +1463,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="A1" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="B2" s="6">
         <v>2019</v>
       </c>
@@ -1585,25 +1485,25 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B4" s="8">
-        <v>325.5</v>
+        <v>292.10000000000002</v>
       </c>
       <c r="C4" s="8">
-        <v>320.2</v>
+        <v>289.7</v>
       </c>
       <c r="D4" s="9">
-        <v>317.2</v>
+        <v>287.39999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1619,13 +1519,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="8">
-        <v>51.1</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8">
-        <v>51.1</v>
+        <v>46.9</v>
       </c>
       <c r="D6" s="9">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1633,27 +1533,27 @@
         <v>3</v>
       </c>
       <c r="B7" s="8">
-        <v>21.5</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="C7" s="8">
-        <v>20.8</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D7" s="9">
-        <v>19.899999999999999</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="8">
-        <v>191.2</v>
+        <v>165.3</v>
       </c>
       <c r="C8" s="8">
-        <v>186.1</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="D8" s="9">
-        <v>188</v>
+        <v>164.8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1661,216 +1561,216 @@
         <v>4</v>
       </c>
       <c r="B9" s="8">
-        <v>83.2</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="C9" s="8">
-        <v>82.9</v>
+        <v>80</v>
       </c>
       <c r="D9" s="9">
-        <v>78.2</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8">
-        <v>8.8000000000000007</v>
+        <v>8.5</v>
       </c>
       <c r="C10" s="8">
-        <v>8.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D10" s="9">
-        <v>8.3000000000000007</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="8">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="C11" s="8">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D11" s="9">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B12" s="8">
-        <v>-4.2</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="C12" s="8">
         <v>-7.3</v>
       </c>
       <c r="D12" s="9">
-        <v>-10.199999999999999</v>
+        <v>-10.3</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="25">
-        <v>272</v>
+        <v>47</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="18">
+        <v>-248</v>
+      </c>
+      <c r="D13" s="19">
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8">
-        <v>91.5</v>
+        <v>85.1</v>
       </c>
       <c r="C15" s="8">
-        <v>90.5</v>
+        <v>85.5</v>
       </c>
       <c r="D15" s="9">
-        <v>88.6</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="B16" s="18">
+        <v>673</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="19">
+        <v>850</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>62</v>
+      <c r="B17" s="18">
+        <v>621</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="19">
+        <v>768</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="8">
+        <v>35998.300000000003</v>
+      </c>
+      <c r="D19" s="9">
+        <v>39557.1</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="8">
+        <v>14615.2</v>
+      </c>
+      <c r="D20" s="9">
+        <v>15704.8</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B21" s="8">
-        <v>98.1</v>
+        <v>125.5</v>
       </c>
       <c r="C21" s="8">
-        <v>96.6</v>
+        <v>124</v>
       </c>
       <c r="D21" s="9">
-        <v>94.1</v>
+        <v>120.6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B22" s="8">
-        <v>28.3</v>
+        <v>29.6</v>
       </c>
       <c r="C22" s="8">
-        <v>29.3</v>
+        <v>30.9</v>
       </c>
       <c r="D22" s="9">
-        <v>30.2</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="B23" s="8">
-        <v>15.7</v>
+        <v>16.2</v>
       </c>
       <c r="C23" s="8">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="D23" s="9">
-        <v>16.3</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B24" s="8">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C24" s="8">
+        <v>18.2</v>
+      </c>
+      <c r="D24" s="9">
         <v>17.2</v>
-      </c>
-      <c r="C24" s="8">
-        <v>17.2</v>
-      </c>
-      <c r="D24" s="9">
-        <v>17.3</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1880,14 +1780,14 @@
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>76</v>
+      <c r="B26" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,35 +1795,35 @@
         <v>9</v>
       </c>
       <c r="B27" s="8">
-        <v>99.6</v>
+        <v>75</v>
       </c>
       <c r="C27" s="8">
-        <v>100.3</v>
+        <v>80</v>
       </c>
       <c r="D27" s="9">
-        <v>100.9</v>
+        <v>84.1</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>79</v>
+      <c r="B29" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1931,49 +1831,49 @@
         <v>9</v>
       </c>
       <c r="B30" s="8">
-        <v>140.6</v>
+        <v>160.4</v>
       </c>
       <c r="C30" s="8">
-        <v>136.6</v>
+        <v>161.5</v>
       </c>
       <c r="D30" s="9">
-        <v>135.19999999999999</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="24">
-        <v>17</v>
-      </c>
-      <c r="C31" s="24">
-        <v>17</v>
-      </c>
-      <c r="D31" s="25">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="B31" s="18">
+        <v>15</v>
+      </c>
+      <c r="C31" s="18">
+        <v>16</v>
+      </c>
+      <c r="D31" s="19">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="8">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C33" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D33" s="9">
         <v>4.2</v>
-      </c>
-      <c r="D33" s="9">
-        <v>4.3</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1981,32 +1881,32 @@
         <v>9</v>
       </c>
       <c r="B34" s="8">
-        <v>136.69999999999999</v>
+        <v>149.9</v>
       </c>
       <c r="C34" s="8">
-        <v>131.6</v>
+        <v>141.30000000000001</v>
       </c>
       <c r="D34" s="9">
-        <v>137</v>
+        <v>145.9</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="24">
-        <v>73</v>
-      </c>
-      <c r="C35" s="24">
-        <v>74</v>
-      </c>
-      <c r="D35" s="25">
-        <v>68</v>
+        <v>28</v>
+      </c>
+      <c r="B35" s="18">
+        <v>47</v>
+      </c>
+      <c r="C35" s="18">
+        <v>43</v>
+      </c>
+      <c r="D35" s="19">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -2017,13 +1917,13 @@
         <v>10</v>
       </c>
       <c r="B37" s="8">
-        <v>11.6</v>
+        <v>12.8</v>
       </c>
       <c r="C37" s="8">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="D37" s="9">
-        <v>11.6</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2031,104 +1931,104 @@
         <v>9</v>
       </c>
       <c r="B38" s="8">
-        <v>356.5</v>
+        <v>436.6</v>
       </c>
       <c r="C38" s="8">
-        <v>359.8</v>
+        <v>447.6</v>
       </c>
       <c r="D38" s="9">
-        <v>366.3</v>
+        <v>441.5</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>82</v>
+        <v>64</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="25"/>
+        <v>11</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>85</v>
+        <v>12</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>88</v>
+        <v>13</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="18">
+        <v>980</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
+      <c r="A43" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
+      </c>
+      <c r="C44" s="8">
+        <v>8691.4</v>
+      </c>
+      <c r="D44" s="9">
+        <v>11451.7</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B45" s="8">
-        <v>22.9</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="C45" s="8">
-        <v>22.5</v>
+        <v>45.2</v>
       </c>
       <c r="D45" s="9">
-        <v>22.5</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2136,129 +2036,129 @@
     </row>
     <row r="47" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B47" s="8">
-        <v>13.3</v>
+        <v>24.9</v>
       </c>
       <c r="C47" s="8">
-        <v>9.1</v>
+        <v>27.7</v>
       </c>
       <c r="D47" s="9">
-        <v>10.4</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B48" s="8">
-        <v>8.6</v>
+        <v>11.4</v>
       </c>
       <c r="C48" s="8">
-        <v>11.6</v>
+        <v>17.5</v>
       </c>
       <c r="D48" s="9">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
+      <c r="A49" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>96</v>
+        <v>77</v>
+      </c>
+      <c r="C50" s="8">
+        <v>325836.40000000002</v>
+      </c>
+      <c r="D50" s="9">
+        <v>364160.5</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>100</v>
+        <v>79</v>
+      </c>
+      <c r="C51" s="8">
+        <v>12586.9</v>
+      </c>
+      <c r="D51" s="9">
+        <v>18541.099999999999</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B52" s="8">
-        <v>52.7</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="C52" s="8">
-        <v>52.3</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="D52" s="9">
-        <v>52.6</v>
+        <v>73.900000000000006</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="24">
-        <v>24</v>
-      </c>
-      <c r="C53" s="24">
-        <v>23.1</v>
-      </c>
-      <c r="D53" s="25">
-        <v>22</v>
+        <v>81</v>
+      </c>
+      <c r="B53" s="8">
+        <v>47.4</v>
+      </c>
+      <c r="C53" s="8">
+        <v>52.1</v>
+      </c>
+      <c r="D53" s="9">
+        <v>56.7</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
+      <c r="A54" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
     </row>
     <row r="55" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>105</v>
+        <v>82</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="18">
+        <v>7862</v>
+      </c>
+      <c r="D55" s="19">
+        <v>7293</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
+      <c r="A56" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -2266,445 +2166,309 @@
     </row>
     <row r="58" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>111</v>
+        <v>85</v>
+      </c>
+      <c r="C59" s="8">
+        <v>55670.5</v>
+      </c>
+      <c r="D59" s="9">
+        <v>64876.1</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>115</v>
+        <v>87</v>
+      </c>
+      <c r="C60" s="8">
+        <v>11340.4</v>
+      </c>
+      <c r="D60" s="9">
+        <v>12294.4</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>119</v>
+        <v>89</v>
+      </c>
+      <c r="C61" s="8">
+        <v>1918.9</v>
+      </c>
+      <c r="D61" s="9">
+        <v>2694.4</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
+      <c r="A62" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>123</v>
+        <v>91</v>
+      </c>
+      <c r="C63" s="8">
+        <v>3881.2</v>
+      </c>
+      <c r="D63" s="9">
+        <v>3740.5</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="B64" s="8">
-        <v>160.1</v>
+        <v>433.2</v>
       </c>
       <c r="C64" s="8">
-        <v>189.7</v>
+        <v>308.10000000000002</v>
       </c>
       <c r="D64" s="9">
-        <v>182.2</v>
+        <v>336.3</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>127</v>
+        <v>31</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="18">
+        <v>2756</v>
+      </c>
+      <c r="D65" s="19">
+        <v>3089</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="25"/>
+        <v>18</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="19"/>
     </row>
     <row r="67" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="24">
-        <v>150</v>
-      </c>
-      <c r="C67" s="24">
-        <v>150</v>
-      </c>
-      <c r="D67" s="25">
-        <v>410</v>
+        <v>94</v>
+      </c>
+      <c r="B67" s="18">
+        <v>500</v>
+      </c>
+      <c r="C67" s="18">
+        <v>640</v>
+      </c>
+      <c r="D67" s="19">
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>21</v>
+        <v>95</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B70" s="8">
-        <v>28.2</v>
-      </c>
-      <c r="C70" s="8">
-        <v>36</v>
-      </c>
-      <c r="D70" s="9">
-        <v>35.700000000000003</v>
+        <v>96</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="18">
+        <v>16001</v>
+      </c>
+      <c r="D70" s="19">
+        <v>28704</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="D71" s="9">
-        <v>0.9</v>
-      </c>
+      <c r="A71" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="17"/>
     </row>
     <row r="72" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>130</v>
+      <c r="A72" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>21</v>
+        <v>98</v>
+      </c>
+      <c r="C72" s="8">
+        <v>54970.7</v>
       </c>
       <c r="D72" s="9">
-        <v>0.3</v>
+        <v>62816.5</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>21</v>
+      <c r="A73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73" s="8">
+        <v>111.9</v>
       </c>
       <c r="C73" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>21</v>
+        <v>108.6</v>
+      </c>
+      <c r="D73" s="9">
+        <v>114.3</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>132</v>
+      <c r="A74" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="B74" s="8">
-        <v>113.1</v>
-      </c>
-      <c r="C74" s="8">
-        <v>242.5</v>
-      </c>
-      <c r="D74" s="9">
-        <v>46.5</v>
+        <v>968.5</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" s="24">
-        <v>2</v>
-      </c>
-      <c r="D75" s="25">
-        <v>1</v>
+      <c r="A75" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="13">
+        <v>101.2</v>
+      </c>
+      <c r="C75" s="13">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="D75" s="14">
+        <v>134.6</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C76" s="24">
-        <v>2</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="A76" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
     </row>
     <row r="77" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A77" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
     </row>
     <row r="78" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A78" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
     </row>
     <row r="79" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="8">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D79" s="9">
-        <v>3.5</v>
-      </c>
+      <c r="A79" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
     </row>
     <row r="80" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" s="24">
-        <v>575</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="A80" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
     </row>
     <row r="81" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="24">
-        <v>1</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>21</v>
-      </c>
+      <c r="A81" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
     </row>
     <row r="82" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="15"/>
-    </row>
-    <row r="83" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="8">
-        <v>97.9</v>
-      </c>
-      <c r="C84" s="8">
-        <v>93.2</v>
-      </c>
-      <c r="D84" s="9">
-        <v>109.8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B85" s="8">
-        <v>806.1</v>
-      </c>
-      <c r="C85" s="8">
-        <v>708.7</v>
-      </c>
-      <c r="D85" s="9">
-        <v>925.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B86" s="22">
-        <v>102.2</v>
-      </c>
-      <c r="C86" s="22">
-        <v>87.4</v>
-      </c>
-      <c r="D86" s="23">
-        <v>118.1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-    </row>
-    <row r="88" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-    </row>
-    <row r="89" spans="1:4" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-    </row>
-    <row r="90" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-    </row>
-    <row r="91" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-    </row>
-    <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-    </row>
+      <c r="A82" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+    </row>
+    <row r="83" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:4" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
     <mergeCell ref="A62:D62"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
@@ -2714,10 +2478,11 @@
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
